--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Subject</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Adding most of bonus points, it was easy to add the wishlist, almost like a plug and play</t>
+  </si>
+  <si>
+    <t>Implemented feedback</t>
+  </si>
+  <si>
+    <t>Implemented some missed ui</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1823,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="topLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1"/>
@@ -1995,10 +2001,16 @@
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1.50</v>
+      </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="4"/>
     </row>
@@ -2136,7 +2148,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>15</v>
+        <v>16.50</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
